--- a/config_2.9/permission_server_config.xlsx
+++ b/config_2.9/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="2102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="2110">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9727,6 +9727,38 @@
   </si>
   <si>
     <t>actp_own_task_1000276</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_gdn_004_jzbd_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_004_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集字榜单--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸--cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9997,7 +10029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10310,6 +10342,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15370,10 +15403,10 @@
   <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D337" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G357" sqref="G357"/>
+      <selection pane="bottomRight" activeCell="D363" sqref="D363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27582,7 +27615,7 @@
       </c>
     </row>
     <row r="362" spans="1:12" s="113" customFormat="1">
-      <c r="A362" s="66">
+      <c r="A362" s="16">
         <v>361</v>
       </c>
       <c r="B362" s="66">
@@ -27616,28 +27649,72 @@
       </c>
     </row>
     <row r="363" spans="1:12" s="22" customFormat="1">
-      <c r="A363" s="17"/>
-      <c r="B363" s="17"/>
-      <c r="C363" s="16"/>
-      <c r="D363" s="16"/>
-      <c r="E363" s="17"/>
-      <c r="F363" s="17"/>
-      <c r="G363" s="17"/>
-      <c r="J363" s="17"/>
-      <c r="K363" s="17"/>
-      <c r="L363" s="16"/>
+      <c r="A363" s="16">
+        <v>362</v>
+      </c>
+      <c r="B363" s="28">
+        <v>1</v>
+      </c>
+      <c r="C363" s="56" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D363" s="29" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E363" s="28"/>
+      <c r="F363" s="28"/>
+      <c r="G363" s="28">
+        <v>393</v>
+      </c>
+      <c r="H363" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I363" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J363" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="K363" s="29">
+        <v>1612828800</v>
+      </c>
+      <c r="L363" s="29" t="s">
+        <v>2106</v>
+      </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
-      <c r="A364" s="17"/>
-      <c r="B364" s="17"/>
-      <c r="C364" s="16"/>
-      <c r="D364" s="16"/>
-      <c r="E364" s="17"/>
-      <c r="F364" s="17"/>
-      <c r="G364" s="17"/>
-      <c r="J364" s="17"/>
-      <c r="K364" s="17"/>
-      <c r="L364" s="16"/>
+      <c r="A364" s="16">
+        <v>363</v>
+      </c>
+      <c r="B364" s="28">
+        <v>1</v>
+      </c>
+      <c r="C364" s="56" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D364" s="29" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E364" s="28"/>
+      <c r="F364" s="28"/>
+      <c r="G364" s="28">
+        <v>394</v>
+      </c>
+      <c r="H364" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I364" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J364" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="K364" s="29">
+        <v>1612828800</v>
+      </c>
+      <c r="L364" s="29" t="s">
+        <v>2107</v>
+      </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
       <c r="A365" s="17"/>
@@ -27665,10 +27742,10 @@
   <dimension ref="A1:I976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E930" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C933" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I959" sqref="I959"/>
+      <selection pane="bottomRight" activeCell="D968" sqref="D968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -50612,7 +50689,7 @@
       </c>
     </row>
     <row r="959" spans="1:8" s="20" customFormat="1">
-      <c r="A959" s="20">
+      <c r="A959" s="8">
         <v>958</v>
       </c>
       <c r="B959" s="20">
@@ -50635,70 +50712,106 @@
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
-      <c r="C960" s="10"/>
-      <c r="D960" s="10"/>
-      <c r="G960" s="10"/>
-    </row>
-    <row r="961" spans="3:7" s="8" customFormat="1">
-      <c r="C961" s="10"/>
-      <c r="D961" s="10"/>
-      <c r="G961" s="10"/>
-    </row>
-    <row r="962" spans="3:7" s="8" customFormat="1"/>
-    <row r="963" spans="3:7" s="8" customFormat="1">
+      <c r="A960" s="8">
+        <v>959</v>
+      </c>
+      <c r="B960" s="14">
+        <v>393</v>
+      </c>
+      <c r="C960" s="15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D960" s="15" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E960" s="14">
+        <v>5</v>
+      </c>
+      <c r="F960" s="14">
+        <v>1</v>
+      </c>
+      <c r="G960" s="15" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" s="8" customFormat="1">
+      <c r="A961" s="8">
+        <v>960</v>
+      </c>
+      <c r="B961" s="14">
+        <v>394</v>
+      </c>
+      <c r="C961" s="15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D961" s="15" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E961" s="14">
+        <v>2</v>
+      </c>
+      <c r="F961" s="14">
+        <v>1</v>
+      </c>
+      <c r="G961" s="15" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" s="8" customFormat="1"/>
+    <row r="963" spans="1:7" s="8" customFormat="1">
       <c r="C963" s="10"/>
       <c r="D963" s="10"/>
       <c r="G963" s="10"/>
     </row>
-    <row r="964" spans="3:7" s="8" customFormat="1">
+    <row r="964" spans="1:7" s="8" customFormat="1">
       <c r="C964" s="10"/>
       <c r="D964" s="10"/>
       <c r="G964" s="10"/>
     </row>
-    <row r="965" spans="3:7" s="8" customFormat="1"/>
-    <row r="966" spans="3:7" s="8" customFormat="1">
+    <row r="965" spans="1:7" s="8" customFormat="1"/>
+    <row r="966" spans="1:7" s="8" customFormat="1">
       <c r="C966" s="10"/>
       <c r="D966" s="10"/>
       <c r="G966" s="10"/>
     </row>
-    <row r="967" spans="3:7" s="8" customFormat="1">
+    <row r="967" spans="1:7" s="8" customFormat="1">
       <c r="C967" s="10"/>
       <c r="D967" s="10"/>
       <c r="G967" s="10"/>
     </row>
-    <row r="968" spans="3:7" s="8" customFormat="1">
+    <row r="968" spans="1:7" s="8" customFormat="1">
       <c r="C968" s="10"/>
       <c r="D968" s="10"/>
       <c r="G968" s="10"/>
     </row>
-    <row r="969" spans="3:7" s="8" customFormat="1"/>
-    <row r="970" spans="3:7" s="8" customFormat="1">
+    <row r="969" spans="1:7" s="8" customFormat="1"/>
+    <row r="970" spans="1:7" s="8" customFormat="1">
       <c r="C970" s="10"/>
       <c r="D970" s="10"/>
       <c r="G970" s="10"/>
     </row>
-    <row r="971" spans="3:7" s="8" customFormat="1">
+    <row r="971" spans="1:7" s="8" customFormat="1">
       <c r="C971" s="10"/>
       <c r="D971" s="10"/>
       <c r="G971" s="10"/>
     </row>
-    <row r="972" spans="3:7" s="8" customFormat="1">
+    <row r="972" spans="1:7" s="8" customFormat="1">
       <c r="C972" s="10"/>
       <c r="D972" s="10"/>
       <c r="G972" s="10"/>
     </row>
-    <row r="973" spans="3:7" s="8" customFormat="1"/>
-    <row r="974" spans="3:7" s="8" customFormat="1">
+    <row r="973" spans="1:7" s="8" customFormat="1"/>
+    <row r="974" spans="1:7" s="8" customFormat="1">
       <c r="C974" s="10"/>
       <c r="D974" s="10"/>
       <c r="G974" s="10"/>
     </row>
-    <row r="975" spans="3:7" s="8" customFormat="1">
+    <row r="975" spans="1:7" s="8" customFormat="1">
       <c r="C975" s="10"/>
       <c r="D975" s="10"/>
       <c r="G975" s="10"/>
     </row>
-    <row r="976" spans="3:7" s="8" customFormat="1">
+    <row r="976" spans="1:7" s="8" customFormat="1">
       <c r="C976" s="10"/>
       <c r="D976" s="10"/>
       <c r="G976" s="10"/>
